--- a/docx/Perhitungan Manual.xlsx
+++ b/docx/Perhitungan Manual.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/38a009a5e8a46036/Skripsi BIPA/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\bahasaind\docx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5982D844-74C4-45D9-B44F-6C1CCCCCBF43}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11535" xr2:uid="{40688A2F-E0A4-49E1-BB6F-1B8BC66224AB}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11535" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="84">
   <si>
     <t>No.</t>
   </si>
@@ -152,12 +152,138 @@
   </si>
   <si>
     <t>Panjang Vektor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "nama": 1,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "saya": 6,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "anak": 1,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "kedua": 1,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "kakak": 1,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "bernama": 4,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "roni": 1,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "kami": 1,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "tinggal": 1,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "bersama": 1,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "nenek": 1,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "dan": 1,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "kakek": 1,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "ibu": 1,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "lana": 1,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "ayah": 1,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "toni": 1,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "seorang": 1,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "arsitek": 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    },</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "mira": 1,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "rama": 1,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "adik": 1,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "dia": 2,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "guru": 1,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "q": [</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            1,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            6,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            0,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            4,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            2,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        ],</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "doc": [</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        ]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    [</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        2,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        1,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ]</t>
+  </si>
+  <si>
+    <t>]</t>
+  </si>
+  <si>
+    <t>doc</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1,</t>
+  </si>
+  <si>
+    <t>1,</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -517,11 +643,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6286EFA0-2536-4451-A7E4-C43F28BBCCC7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:R45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R6" sqref="R6:R36"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1926,10 +2052,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F0EDB04-FC1E-4B4E-A591-ED7155632042}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:K38"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
@@ -2803,4 +2929,410 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:D132"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" t="s">
+        <v>68</v>
+      </c>
+      <c r="D17" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" t="s">
+        <v>70</v>
+      </c>
+      <c r="D22" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" t="s">
+        <v>68</v>
+      </c>
+      <c r="C23" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24" t="s">
+        <v>68</v>
+      </c>
+      <c r="D24" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25" t="s">
+        <v>68</v>
+      </c>
+      <c r="C25" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>60</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/docx/Perhitungan Manual.xlsx
+++ b/docx/Perhitungan Manual.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\bahasaind\docx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mochammad Fadhli\OneDrive\Skripsi BIPA\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="5" documentId="8_{5982D844-74C4-45D9-B44F-6C1CCCCCBF43}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{BE2EF517-940E-44C5-AD41-7E83666307D6}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11535" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15150" xr2:uid="{40688A2F-E0A4-49E1-BB6F-1B8BC66224AB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="42">
   <si>
     <t>No.</t>
   </si>
@@ -152,138 +152,12 @@
   </si>
   <si>
     <t>Panjang Vektor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        "nama": 1,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        "saya": 6,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        "anak": 1,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        "kedua": 1,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        "kakak": 1,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        "bernama": 4,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        "roni": 1,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        "kami": 1,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        "tinggal": 1,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        "bersama": 1,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        "nenek": 1,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        "dan": 1,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        "kakek": 1,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        "ibu": 1,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        "lana": 1,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        "ayah": 1,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        "toni": 1,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        "seorang": 1,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        "arsitek": 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    },</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        "mira": 1,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        "rama": 1,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        "adik": 1,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        "dia": 2,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        "guru": 1,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        "q": [</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            1,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            6,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            0,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            4,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            2,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        ],</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        "doc": [</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        ]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    [</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        2,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        1,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    ]</t>
-  </si>
-  <si>
-    <t>]</t>
-  </si>
-  <si>
-    <t>doc</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1,</t>
-  </si>
-  <si>
-    <t>1,</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -643,11 +517,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6286EFA0-2536-4451-A7E4-C43F28BBCCC7}">
   <dimension ref="B4:R45"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N45" sqref="N45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -656,7 +530,8 @@
     <col min="7" max="7" width="21.28515625" customWidth="1"/>
     <col min="8" max="8" width="10.42578125" customWidth="1"/>
     <col min="13" max="13" width="13.85546875" customWidth="1"/>
-    <col min="15" max="15" width="19.5703125" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" customWidth="1"/>
+    <col min="15" max="15" width="19.42578125" customWidth="1"/>
     <col min="16" max="16" width="13.28515625" customWidth="1"/>
     <col min="17" max="17" width="12.28515625" customWidth="1"/>
   </cols>
@@ -1872,127 +1747,13 @@
       </c>
     </row>
     <row r="34" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B34" s="1">
-        <v>29</v>
-      </c>
-      <c r="C34" t="s">
-        <v>33</v>
-      </c>
-      <c r="D34">
-        <v>0</v>
-      </c>
-      <c r="E34">
-        <v>1</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-      <c r="G34">
-        <f t="shared" si="2"/>
-        <v>1.3010299956639813</v>
-      </c>
-      <c r="J34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K34">
-        <f t="shared" si="1"/>
-        <v>1.3010299956639813</v>
-      </c>
-      <c r="M34">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Q34">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="R34">
-        <f t="shared" si="4"/>
-        <v>1.6926790496174191</v>
-      </c>
+      <c r="B34" s="1"/>
     </row>
     <row r="35" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B35" s="1">
-        <v>30</v>
-      </c>
-      <c r="C35" t="s">
-        <v>34</v>
-      </c>
-      <c r="D35">
-        <v>0</v>
-      </c>
-      <c r="E35">
-        <v>1</v>
-      </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-      <c r="G35">
-        <f t="shared" si="2"/>
-        <v>1.3010299956639813</v>
-      </c>
-      <c r="J35">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K35">
-        <f t="shared" si="1"/>
-        <v>1.3010299956639813</v>
-      </c>
-      <c r="M35">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Q35">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="R35">
-        <f t="shared" si="4"/>
-        <v>1.6926790496174191</v>
-      </c>
+      <c r="B35" s="1"/>
     </row>
     <row r="36" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B36" s="1">
-        <v>31</v>
-      </c>
-      <c r="C36" t="s">
-        <v>35</v>
-      </c>
-      <c r="D36">
-        <v>0</v>
-      </c>
-      <c r="E36">
-        <v>1</v>
-      </c>
-      <c r="F36">
-        <v>1</v>
-      </c>
-      <c r="G36">
-        <f t="shared" si="2"/>
-        <v>1.3010299956639813</v>
-      </c>
-      <c r="J36">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K36">
-        <f t="shared" si="1"/>
-        <v>1.3010299956639813</v>
-      </c>
-      <c r="M36">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Q36">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="R36">
-        <f t="shared" si="4"/>
-        <v>1.6926790496174191</v>
-      </c>
+      <c r="B36" s="1"/>
     </row>
     <row r="37" spans="2:18" x14ac:dyDescent="0.25">
       <c r="M37">
@@ -2005,7 +1766,7 @@
       </c>
       <c r="R37">
         <f>SUM(R6:R36)</f>
-        <v>78.848753347321974</v>
+        <v>73.7707161984697</v>
       </c>
     </row>
     <row r="38" spans="2:18" x14ac:dyDescent="0.25">
@@ -2015,24 +1776,22 @@
       </c>
       <c r="R38">
         <f>SQRT(R37)</f>
-        <v>8.8796820521526545</v>
-      </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="O43" t="s">
-        <v>40</v>
+        <v>8.5889880776765377</v>
       </c>
     </row>
     <row r="44" spans="2:18" x14ac:dyDescent="0.25">
       <c r="O44">
         <f>Q38*R38</f>
-        <v>80.334750665380071</v>
+        <v>77.70483353295235</v>
       </c>
     </row>
     <row r="45" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="N45" t="s">
+        <v>40</v>
+      </c>
       <c r="O45">
         <f>M37/O44</f>
-        <v>0.84645809486907786</v>
+        <v>0.87510643686229872</v>
       </c>
     </row>
   </sheetData>
@@ -2052,10 +1811,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F0EDB04-FC1E-4B4E-A591-ED7155632042}">
   <dimension ref="B4:K38"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
@@ -2929,410 +2688,4 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:D132"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C6" t="s">
-        <v>68</v>
-      </c>
-      <c r="D6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>45</v>
-      </c>
-      <c r="B7" t="s">
-        <v>68</v>
-      </c>
-      <c r="C7" t="s">
-        <v>68</v>
-      </c>
-      <c r="D7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B8" t="s">
-        <v>68</v>
-      </c>
-      <c r="C8" t="s">
-        <v>68</v>
-      </c>
-      <c r="D8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B9" t="s">
-        <v>71</v>
-      </c>
-      <c r="C9" t="s">
-        <v>71</v>
-      </c>
-      <c r="D9" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>63</v>
-      </c>
-      <c r="B10" t="s">
-        <v>68</v>
-      </c>
-      <c r="C10" t="s">
-        <v>70</v>
-      </c>
-      <c r="D10" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>64</v>
-      </c>
-      <c r="B11" t="s">
-        <v>68</v>
-      </c>
-      <c r="C11" t="s">
-        <v>70</v>
-      </c>
-      <c r="D11" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>48</v>
-      </c>
-      <c r="B12" t="s">
-        <v>68</v>
-      </c>
-      <c r="C12" t="s">
-        <v>68</v>
-      </c>
-      <c r="D12" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>49</v>
-      </c>
-      <c r="B13" t="s">
-        <v>68</v>
-      </c>
-      <c r="C13" t="s">
-        <v>68</v>
-      </c>
-      <c r="D13" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>50</v>
-      </c>
-      <c r="B14" t="s">
-        <v>68</v>
-      </c>
-      <c r="C14" t="s">
-        <v>68</v>
-      </c>
-      <c r="D14" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>51</v>
-      </c>
-      <c r="B15" t="s">
-        <v>68</v>
-      </c>
-      <c r="C15" t="s">
-        <v>68</v>
-      </c>
-      <c r="D15" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>52</v>
-      </c>
-      <c r="B16" t="s">
-        <v>68</v>
-      </c>
-      <c r="C16" t="s">
-        <v>68</v>
-      </c>
-      <c r="D16" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>53</v>
-      </c>
-      <c r="B17" t="s">
-        <v>68</v>
-      </c>
-      <c r="C17" t="s">
-        <v>68</v>
-      </c>
-      <c r="D17" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>54</v>
-      </c>
-      <c r="B18" t="s">
-        <v>68</v>
-      </c>
-      <c r="C18" t="s">
-        <v>68</v>
-      </c>
-      <c r="D18" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>55</v>
-      </c>
-      <c r="B19" t="s">
-        <v>68</v>
-      </c>
-      <c r="C19" t="s">
-        <v>68</v>
-      </c>
-      <c r="D19" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>56</v>
-      </c>
-      <c r="B20" t="s">
-        <v>68</v>
-      </c>
-      <c r="C20" t="s">
-        <v>68</v>
-      </c>
-      <c r="D20" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>65</v>
-      </c>
-      <c r="B21" t="s">
-        <v>72</v>
-      </c>
-      <c r="C21" t="s">
-        <v>68</v>
-      </c>
-      <c r="D21" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>66</v>
-      </c>
-      <c r="B22" t="s">
-        <v>68</v>
-      </c>
-      <c r="C22" t="s">
-        <v>70</v>
-      </c>
-      <c r="D22" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>57</v>
-      </c>
-      <c r="B23" t="s">
-        <v>68</v>
-      </c>
-      <c r="C23" t="s">
-        <v>68</v>
-      </c>
-      <c r="D23" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>58</v>
-      </c>
-      <c r="B24" t="s">
-        <v>68</v>
-      </c>
-      <c r="C24" t="s">
-        <v>68</v>
-      </c>
-      <c r="D24" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>59</v>
-      </c>
-      <c r="B25" t="s">
-        <v>68</v>
-      </c>
-      <c r="C25" t="s">
-        <v>68</v>
-      </c>
-      <c r="D25" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>60</v>
-      </c>
-      <c r="B26">
-        <v>1</v>
-      </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-      <c r="D26">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
-        <v>80</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>